--- a/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_serum.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_maven_6eaas_serum.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD41788-1E72-FA45-B249-509EBDF259AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="32000" windowHeight="9740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -12,13 +18,121 @@
     <sheet name="Normalized" sheetId="3" r:id="rId3"/>
     <sheet name="PoolAfterDF" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="30">
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>serum-xz971</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>lysine</t>
+  </si>
+  <si>
+    <t>C6H14N2O2</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-5</t>
+  </si>
+  <si>
+    <t>C13-label-6</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>C6H12O6</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>lactate</t>
+  </si>
+  <si>
+    <t>C3H6O3</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>C_Label</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +180,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -110,7 +232,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -144,6 +266,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -178,9 +301,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -353,91 +477,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>metaGroupId</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>groupId</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>goodPeakCount</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>medMz</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>medRt</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>maxQuality</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>isotopeLabel</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>compound</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>compoundId</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>expectedRtDiff</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ppmDiff</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz971</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>0</v>
       </c>
@@ -448,48 +559,40 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>145.098</v>
+        <v>145.09800000000001</v>
       </c>
       <c r="F2">
-        <v>16.90346</v>
+        <v>16.903459999999999</v>
       </c>
       <c r="G2">
-        <v>0.8521599</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>C12 PARENT</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>C6H14N2O2</t>
-        </is>
+        <v>0.85215989999999997</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
       </c>
       <c r="L2">
-        <v>0.6265411</v>
+        <v>0.62654109999999996</v>
       </c>
       <c r="M2">
-        <v>1.998074</v>
+        <v>1.9980739999999999</v>
       </c>
       <c r="N2">
-        <v>145.098</v>
+        <v>145.09800000000001</v>
       </c>
       <c r="O2">
         <v>205652.5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -500,48 +603,40 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>146.1013</v>
+        <v>146.10130000000001</v>
       </c>
       <c r="F3">
         <v>16.92221</v>
       </c>
       <c r="G3">
-        <v>0.8249971</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>C13-label-1</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>C6H14N2O2</t>
-        </is>
+        <v>0.82499710000000004</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
       </c>
       <c r="L3">
-        <v>0.6077919000000001</v>
+        <v>0.60779190000000005</v>
       </c>
       <c r="M3">
-        <v>2.088791</v>
+        <v>2.0887910000000001</v>
       </c>
       <c r="N3">
-        <v>145.098</v>
+        <v>145.09800000000001</v>
       </c>
       <c r="O3">
         <v>8175.78</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>0</v>
       </c>
@@ -555,45 +650,37 @@
         <v>150.1147</v>
       </c>
       <c r="F4">
-        <v>16.87963</v>
+        <v>16.879629999999999</v>
       </c>
       <c r="G4">
-        <v>0.8326576999999999</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>C13-label-5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>C6H14N2O2</t>
-        </is>
+        <v>0.83265769999999995</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
       </c>
       <c r="L4">
-        <v>0.6503735</v>
+        <v>0.65037350000000005</v>
       </c>
       <c r="M4">
-        <v>2.439536</v>
+        <v>2.4395359999999999</v>
       </c>
       <c r="N4">
-        <v>145.098</v>
+        <v>145.09800000000001</v>
       </c>
       <c r="O4">
-        <v>2109.068</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2109.0680000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -610,42 +697,34 @@
         <v>16.90596</v>
       </c>
       <c r="G5">
-        <v>0.8502497999999999</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>C13-label-6</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>C6H14N2O2</t>
-        </is>
+        <v>0.85024979999999994</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
       </c>
       <c r="L5">
-        <v>0.6240405999999999</v>
+        <v>0.62404059999999995</v>
       </c>
       <c r="M5">
-        <v>2.019449</v>
+        <v>2.0194489999999998</v>
       </c>
       <c r="N5">
-        <v>145.098</v>
+        <v>145.09800000000001</v>
       </c>
       <c r="O5">
         <v>42454.35</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>0</v>
       </c>
@@ -662,33 +741,25 @@
         <v>11.2097</v>
       </c>
       <c r="G6">
-        <v>0.8376644</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>C12 PARENT</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>C6H12O6</t>
-        </is>
+        <v>0.83766439999999998</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
       </c>
       <c r="L6">
-        <v>0.5402994</v>
+        <v>0.54029939999999999</v>
       </c>
       <c r="M6">
-        <v>2.386102</v>
+        <v>2.3861020000000002</v>
       </c>
       <c r="N6">
         <v>179.0557</v>
@@ -697,7 +768,7 @@
         <v>35530470</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>0</v>
       </c>
@@ -711,33 +782,25 @@
         <v>180.0591</v>
       </c>
       <c r="F7">
-        <v>11.21567</v>
+        <v>11.215669999999999</v>
       </c>
       <c r="G7">
-        <v>0.8282341</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>C13-label-1</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>C6H12O6</t>
-        </is>
+        <v>0.82823409999999997</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
       </c>
       <c r="L7">
-        <v>0.5343294</v>
+        <v>0.53432939999999995</v>
       </c>
       <c r="M7">
         <v>2.118576</v>
@@ -749,7 +812,7 @@
         <v>2521830</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>0</v>
       </c>
@@ -760,39 +823,31 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>181.0623</v>
+        <v>181.06229999999999</v>
       </c>
       <c r="F8">
         <v>11.21571</v>
       </c>
       <c r="G8">
-        <v>0.8525478</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>C13-label-2</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>C6H12O6</t>
-        </is>
+        <v>0.85254779999999997</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
       </c>
       <c r="L8">
-        <v>0.5342875</v>
+        <v>0.53428750000000003</v>
       </c>
       <c r="M8">
-        <v>2.612477</v>
+        <v>2.6124770000000002</v>
       </c>
       <c r="N8">
         <v>179.0557</v>
@@ -801,7 +856,7 @@
         <v>135196.1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>0</v>
       </c>
@@ -812,39 +867,31 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>182.0657</v>
+        <v>182.06569999999999</v>
       </c>
       <c r="F9">
         <v>11.22148</v>
       </c>
       <c r="G9">
-        <v>0.8465701</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>C13-label-3</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>C6H12O6</t>
-        </is>
+        <v>0.84657009999999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
       </c>
       <c r="L9">
-        <v>0.5285196</v>
+        <v>0.52851959999999998</v>
       </c>
       <c r="M9">
-        <v>2.514271</v>
+        <v>2.5142709999999999</v>
       </c>
       <c r="N9">
         <v>179.0557</v>
@@ -853,7 +900,7 @@
         <v>53141.26</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>0</v>
       </c>
@@ -864,39 +911,31 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>183.069</v>
+        <v>183.06899999999999</v>
       </c>
       <c r="F10">
-        <v>11.23905</v>
+        <v>11.239050000000001</v>
       </c>
       <c r="G10">
-        <v>0.2100916</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>C13-label-4</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>C6H12O6</t>
-        </is>
+        <v>0.21009159999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
       </c>
       <c r="L10">
-        <v>0.5109491</v>
+        <v>0.51094910000000004</v>
       </c>
       <c r="M10">
-        <v>3.167288</v>
+        <v>3.1672880000000001</v>
       </c>
       <c r="N10">
         <v>179.0557</v>
@@ -905,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>0</v>
       </c>
@@ -916,48 +955,40 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>89.02421</v>
+        <v>89.024209999999997</v>
       </c>
       <c r="F11">
-        <v>7.673613</v>
+        <v>7.6736129999999996</v>
       </c>
       <c r="G11">
-        <v>0.8320869</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>C12 PARENT</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>C3H6O3</t>
-        </is>
+        <v>0.83208689999999996</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
       </c>
       <c r="L11">
-        <v>0.1263876</v>
+        <v>0.12638759999999999</v>
       </c>
       <c r="M11">
         <v>2.313901</v>
       </c>
       <c r="N11">
-        <v>89.02419999999999</v>
+        <v>89.024199999999993</v>
       </c>
       <c r="O11">
         <v>70796300</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>0</v>
       </c>
@@ -968,48 +999,40 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>90.02751000000001</v>
+        <v>90.027510000000007</v>
       </c>
       <c r="F12">
         <v>7.697101</v>
       </c>
       <c r="G12">
-        <v>0.821844</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>C13-label-1</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>C3H6O3</t>
-        </is>
+        <v>0.82184400000000002</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
       </c>
       <c r="L12">
-        <v>0.1028996</v>
+        <v>0.10289959999999999</v>
       </c>
       <c r="M12">
-        <v>2.881327</v>
+        <v>2.8813270000000002</v>
       </c>
       <c r="N12">
-        <v>89.02419999999999</v>
+        <v>89.024199999999993</v>
       </c>
       <c r="O12">
         <v>2503746</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>0</v>
       </c>
@@ -1020,48 +1043,40 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>91.03086999999999</v>
+        <v>91.030869999999993</v>
       </c>
       <c r="F13">
-        <v>7.70308</v>
+        <v>7.7030799999999999</v>
       </c>
       <c r="G13">
-        <v>0.8521174</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>C13-label-2</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>C3H6O3</t>
-        </is>
+        <v>0.85211740000000002</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
       </c>
       <c r="L13">
-        <v>0.09692049</v>
+        <v>9.6920489999999998E-2</v>
       </c>
       <c r="M13">
-        <v>2.849568</v>
+        <v>2.8495680000000001</v>
       </c>
       <c r="N13">
-        <v>89.02419999999999</v>
+        <v>89.024199999999993</v>
       </c>
       <c r="O13">
         <v>73552.3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0</v>
       </c>
@@ -1072,45 +1087,37 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>92.03422999999999</v>
+        <v>92.034229999999994</v>
       </c>
       <c r="F14">
         <v>7.643713</v>
       </c>
       <c r="G14">
-        <v>0.7751898</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>C13-label-3</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>C3H6O3</t>
-        </is>
+        <v>0.77518980000000004</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
       </c>
       <c r="L14">
-        <v>0.1562872</v>
+        <v>0.15628719999999999</v>
       </c>
       <c r="M14">
-        <v>2.735605</v>
+        <v>2.7356050000000001</v>
       </c>
       <c r="N14">
-        <v>89.02419999999999</v>
+        <v>89.024199999999993</v>
       </c>
       <c r="O14">
-        <v>611248.2</v>
+        <v>611248.19999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1119,48 +1126,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Compound</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>C_Label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz971</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>222028.365565823</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+        <v>222028.36556582301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1169,11 +1173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1182,11 +1184,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1195,11 +1195,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1208,11 +1206,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1221,37 +1217,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>45658.5368705304</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>45658.536870530399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>38508408.8001516</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>38508408.800151601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1260,37 +1250,31 @@
         <v>144823.242383984</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>63238.8255750934</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>63238.825575093397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>53137.0324074106</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>53137.032407410603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1299,11 +1283,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1312,11 +1294,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -1325,56 +1305,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>73702705.7639641</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+        <v>73702705.763964102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>214211.840071759</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+        <v>214211.84007175901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>26958.325450906</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+        <v>26958.325450905999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>634396.210643295</v>
+        <v>634396.21064329497</v>
       </c>
     </row>
   </sheetData>
@@ -1383,35 +1355,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Compound</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>C_Label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz971</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1420,11 +1391,9 @@
         <v>0.829433056100358</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1433,11 +1402,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1446,11 +1413,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1459,11 +1424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1472,11 +1435,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1485,11 +1446,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1498,63 +1457,53 @@
         <v>0.170566943899642</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.993262787154394</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>0.99326278715439398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.00373548380359165</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>3.7354838035916502E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>0.00163114431637696</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>1.63114431637696E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0.00137058472563764</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>1.37058472563764E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1563,11 +1512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1576,11 +1523,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -1589,11 +1534,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1602,43 +1545,37 @@
         <v>0.988259765866916</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.00287230897049025</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+        <v>2.8723089704902499E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>0.000361476937951206</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+        <v>3.6147693795120602E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.00850644822464224</v>
+        <v>8.5064482246422404E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1647,95 +1584,47 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Compound</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz971</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz972</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz981</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>serum-xz982</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>267686.902436353</v>
-      </c>
-      <c r="C2">
-        <v>338798.955516428</v>
-      </c>
-      <c r="D2">
-        <v>587655.049899232</v>
-      </c>
-      <c r="E2">
-        <v>1023488.08870736</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
+        <v>267686.90243635298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>38769607.9005181</v>
-      </c>
-      <c r="C3">
-        <v>34881991.1029294</v>
-      </c>
-      <c r="D3">
-        <v>52002435.4523177</v>
-      </c>
-      <c r="E3">
-        <v>67331701.445665</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>lactate</t>
-        </is>
+        <v>38769607.900518097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>74578272.1401301</v>
-      </c>
-      <c r="C4">
-        <v>72609638.5556401</v>
-      </c>
-      <c r="D4">
-        <v>99393240.7814067</v>
-      </c>
-      <c r="E4">
-        <v>95856573.5904467</v>
+        <v>74578272.140130103</v>
       </c>
     </row>
   </sheetData>
